--- a/branches/Update-value-set/StructureDefinition-hiv-care-next-visit.xlsx
+++ b/branches/Update-value-set/StructureDefinition-hiv-care-next-visit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:03:55+00:00</t>
+    <t>2023-03-03T16:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
